--- a/Documentos/Tablas y atributos.xlsx
+++ b/Documentos/Tablas y atributos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="82">
   <si>
     <t>Logo</t>
   </si>
@@ -237,6 +237,39 @@
   </si>
   <si>
     <t>Aseguradora</t>
+  </si>
+  <si>
+    <t>TDA: Registro Operacional</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Cálculo_Precio</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Validación_Fechas</t>
+  </si>
+  <si>
+    <t>TDA: Registro Locacional</t>
+  </si>
+  <si>
+    <t>Unidad_Auto</t>
+  </si>
+  <si>
+    <t>Ubicación (País, estado, latitud, altitud, dirección)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> + Validación_Status</t>
+  </si>
+  <si>
+    <t>Cálculo de distancia</t>
+  </si>
+  <si>
+    <t>TDA: Registro de Status</t>
+  </si>
+  <si>
+    <t>Validación_Status</t>
+  </si>
+  <si>
+    <t>Registro_Locacional</t>
   </si>
 </sst>
 </file>
@@ -252,12 +285,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -277,8 +316,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -298,6 +349,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -358,44 +442,143 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -677,10 +860,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O35"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,29 +873,31 @@
     <col min="3" max="3" width="30.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
     <col min="8" max="8" width="14.140625" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="F1" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -723,23 +908,25 @@
       <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="F2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="18"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -750,21 +937,23 @@
       <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="F3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="18"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
@@ -775,21 +964,23 @@
       <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="F4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="18"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -800,21 +991,23 @@
       <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="F5" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="18"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
@@ -825,19 +1018,21 @@
       <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="F6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="18"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
@@ -848,17 +1043,17 @@
       <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="1" t="s">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="1" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
@@ -869,17 +1064,17 @@
       <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="1" t="s">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="7"/>
+      <c r="E8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="18"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
@@ -890,17 +1085,17 @@
       <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="1" t="s">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="10" t="s">
+      <c r="D9" s="7"/>
+      <c r="E9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -911,15 +1106,15 @@
       <c r="O9" s="3"/>
     </row>
     <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="18"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
       <c r="J10" s="3"/>
@@ -930,23 +1125,25 @@
       <c r="O10" s="3"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="F11" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" s="18"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
@@ -956,24 +1153,26 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:15" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="18"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -984,21 +1183,23 @@
       <c r="O12" s="3"/>
     </row>
     <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="1" t="s">
+      <c r="C13" s="7"/>
+      <c r="D13" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="F13" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="18"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
@@ -1009,19 +1210,21 @@
       <c r="O13" s="3"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="1" t="s">
+      <c r="C14" s="7"/>
+      <c r="D14" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="18"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
@@ -1031,18 +1234,18 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2" t="s">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="18"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
@@ -1053,15 +1256,17 @@
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="A16" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="18"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
@@ -1072,23 +1277,25 @@
       <c r="O16" s="3"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G17" s="18"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
@@ -1099,23 +1306,25 @@
       <c r="O17" s="3"/>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G18" s="18"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
@@ -1126,23 +1335,25 @@
       <c r="O18" s="3"/>
     </row>
     <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="F19" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="18"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
@@ -1152,20 +1363,22 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="1" t="s">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="18"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
@@ -1176,19 +1389,19 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="2" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -1199,15 +1412,15 @@
       <c r="O21" s="3"/>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="1" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
@@ -1218,15 +1431,15 @@
       <c r="O22" s="3"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="1" t="s">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -1237,15 +1450,15 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
@@ -1256,23 +1469,23 @@
       <c r="O24" s="3"/>
     </row>
     <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="18"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
@@ -1283,23 +1496,23 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="18"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
@@ -1310,21 +1523,21 @@
       <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="A27" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="1" t="s">
+      <c r="D27" s="7"/>
+      <c r="E27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="18"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
@@ -1334,18 +1547,20 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="1" t="s">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="1" t="s">
+      <c r="D28" s="7"/>
+      <c r="E28" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="18"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
@@ -1355,18 +1570,18 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
+    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="1" t="s">
+      <c r="D29" s="7"/>
+      <c r="E29" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="18"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
@@ -1377,17 +1592,15 @@
       <c r="O29" s="3"/>
     </row>
     <row r="30" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="18"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
@@ -1398,15 +1611,13 @@
       <c r="O30" s="3"/>
     </row>
     <row r="31" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="18"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
@@ -1417,21 +1628,21 @@
       <c r="O31" s="3"/>
     </row>
     <row r="32" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="5" t="s">
+      <c r="A32" s="7"/>
+      <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="E32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="18"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -1441,22 +1652,24 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="E33" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="18"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
@@ -1466,22 +1679,24 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34" s="1" t="s">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="E34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="18"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
@@ -1492,15 +1707,26 @@
       <c r="O34" s="3"/>
     </row>
     <row r="35" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C35" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="D35" s="19" t="s">
         <v>0</v>
       </c>
+      <c r="E35" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
